--- a/实验室/数据合集/链路预测.xlsx
+++ b/实验室/数据合集/链路预测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8278D8-B1C5-4CE1-B309-22A989354FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4310D45-AB7C-46B2-9934-1CA36D0C0FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1050" windowWidth="18210" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16530" yWindow="1470" windowWidth="20265" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15K-237" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,17 +342,28 @@
   <si>
     <t>ROTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatRE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuatDE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="177" formatCode="0.000000;[Red]0.000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +393,13 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,7 +433,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +448,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,25 +732,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:6" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,274 +756,310 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="2">
+      <c r="C2" s="8">
         <v>0.24</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D2" s="8">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
+      <c r="E2" s="8">
         <v>26</v>
       </c>
-      <c r="H2" s="2">
+      <c r="F2" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C3" s="8">
         <v>0.25</v>
       </c>
-      <c r="F3" s="2">
+      <c r="D3" s="8">
         <v>16</v>
       </c>
-      <c r="G3" s="2">
+      <c r="E3" s="8">
         <v>28</v>
       </c>
-      <c r="H3" s="2">
+      <c r="F3" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="2">
+      <c r="C4" s="8">
         <v>0.25</v>
       </c>
-      <c r="F4" s="2">
+      <c r="D4" s="8">
         <v>15</v>
       </c>
-      <c r="G4" s="2">
+      <c r="E4" s="8">
         <v>26</v>
       </c>
-      <c r="H4" s="2">
+      <c r="F4" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>357</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C5" s="8">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H5" s="2">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
         <v>46.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2">
+      <c r="C6" s="8">
         <v>0.32</v>
       </c>
-      <c r="F6" s="2">
+      <c r="D6" s="8">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="E6" s="8">
         <v>35</v>
       </c>
-      <c r="H6" s="2">
+      <c r="F6" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="2">
+      <c r="C7" s="8">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="D7" s="8">
         <v>23.9</v>
       </c>
-      <c r="G7" s="2">
+      <c r="E7" s="8">
         <v>35.200000000000003</v>
       </c>
-      <c r="H7" s="2">
+      <c r="F7" s="8">
         <v>48.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="2">
+      <c r="C8" s="8">
         <v>0.33600000000000002</v>
       </c>
-      <c r="F8" s="2">
+      <c r="D8" s="8">
         <v>24.5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="E8" s="8">
         <v>37</v>
       </c>
-      <c r="H8" s="2">
+      <c r="F8" s="8">
         <v>52.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>177</v>
       </c>
-      <c r="E9" s="2">
+      <c r="C9" s="8">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="D9" s="8">
         <v>24.1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="E9" s="8">
         <v>37.5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="F9" s="8">
         <v>53.3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="2">
+      <c r="C10" s="8">
         <v>0.34399999999999997</v>
       </c>
-      <c r="F10" s="2">
+      <c r="D10" s="8">
         <v>24.6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="E10" s="8">
         <v>28</v>
       </c>
-      <c r="H10" s="2">
+      <c r="F10" s="8">
         <v>53.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="2">
+      <c r="C11" s="8">
         <v>0.35</v>
       </c>
-      <c r="F11" s="2">
+      <c r="D11" s="8">
         <v>26</v>
       </c>
-      <c r="G11" s="2">
+      <c r="E11" s="8">
         <v>39</v>
       </c>
-      <c r="H11" s="2">
+      <c r="F11" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>73</v>
       </c>
       <c r="B12">
         <v>88</v>
       </c>
-      <c r="E12" s="2">
+      <c r="C12" s="8">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="D12" s="8">
         <v>25.8</v>
       </c>
-      <c r="G12" s="2">
+      <c r="E12" s="8">
         <v>39.200000000000003</v>
       </c>
-      <c r="H12" s="2">
+      <c r="F12" s="8">
         <v>55.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>197</v>
       </c>
-      <c r="E13" s="2">
+      <c r="C13" s="8">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F13" s="2">
+      <c r="D13" s="8">
         <v>26.4</v>
       </c>
-      <c r="G13" s="2">
+      <c r="E13" s="8">
         <v>39</v>
       </c>
-      <c r="H13" s="2">
+      <c r="F13" s="8">
         <v>53.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="2">
+      <c r="C14" s="8">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F14" s="2">
+      <c r="D14" s="8">
         <v>26.6</v>
       </c>
-      <c r="G14" s="2">
+      <c r="E14" s="8">
         <v>39.4</v>
       </c>
-      <c r="H14" s="2">
+      <c r="F14" s="8">
         <v>54.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>74</v>
       </c>
       <c r="B15">
         <v>91</v>
       </c>
-      <c r="E15" s="2">
+      <c r="C15" s="8">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="D15" s="8">
         <v>26.8</v>
       </c>
-      <c r="G15" s="2">
+      <c r="E15" s="8">
         <v>40</v>
       </c>
-      <c r="H15" s="2">
+      <c r="F15" s="8">
         <v>55.9</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="8">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D16" s="8">
+        <v>26.8</v>
+      </c>
+      <c r="E16" s="8">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="8">
+        <v>88</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>26.9</v>
+      </c>
+      <c r="E17" s="8">
+        <v>40.4</v>
+      </c>
+      <c r="F17" s="8">
+        <v>56.3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H16">
-    <sortCondition ref="E1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1014,24 +1068,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA0D77C-1F05-4432-80DD-276D3D0588DC}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:7" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,263 +1091,294 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>3384</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="C2" s="8">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8">
         <v>50.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
         <v>3340</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="C3" s="8">
         <v>0.47599999999999998</v>
       </c>
-      <c r="F3" s="2">
+      <c r="D3" s="8">
         <v>42.8</v>
       </c>
-      <c r="G3" s="2">
+      <c r="E3" s="8">
         <v>49.2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="F3" s="8">
         <v>57.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>3533</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="C4" s="8">
         <v>0.47899999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="D4" s="8">
         <v>44.3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="E4" s="8">
         <v>49.4</v>
       </c>
-      <c r="H4" s="2">
+      <c r="F4" s="8">
         <v>54.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C5" s="8">
         <v>0.43</v>
       </c>
-      <c r="F5" s="2">
+      <c r="D5" s="8">
         <v>39</v>
       </c>
-      <c r="G5" s="2">
+      <c r="E5" s="8">
         <v>44</v>
       </c>
-      <c r="H5" s="2">
+      <c r="F5" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2">
+      <c r="C6" s="8">
         <v>0.44</v>
       </c>
-      <c r="F6" s="2">
+      <c r="D6" s="8">
         <v>41</v>
       </c>
-      <c r="G6" s="2">
+      <c r="E6" s="8">
         <v>46</v>
       </c>
-      <c r="H6" s="2">
+      <c r="F6" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="2">
+      <c r="C7" s="8">
         <v>0.46</v>
       </c>
-      <c r="F7" s="2">
+      <c r="D7" s="8">
         <v>39</v>
       </c>
-      <c r="G7" s="2">
+      <c r="E7" s="8">
         <v>43</v>
       </c>
-      <c r="H7" s="2">
+      <c r="F7" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="2">
+      <c r="C8" s="8">
         <v>0.47</v>
       </c>
-      <c r="F8" s="2">
+      <c r="D8" s="8">
         <v>43</v>
       </c>
-      <c r="G8" s="2">
+      <c r="E8" s="8">
         <v>48</v>
       </c>
-      <c r="H8" s="2">
+      <c r="F8" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="2">
+      <c r="C9" s="8">
         <v>0.47</v>
       </c>
-      <c r="F9" s="2">
+      <c r="D9" s="8">
         <v>43.7</v>
       </c>
-      <c r="G9" s="2">
+      <c r="E9" s="8">
         <v>48.2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="F9" s="8">
         <v>53.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10">
         <v>2363</v>
       </c>
-      <c r="E10" s="2">
+      <c r="C10" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="D10" s="8">
         <v>44.1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="E10" s="8">
         <v>51</v>
       </c>
-      <c r="H10" s="2">
+      <c r="F10" s="8">
         <v>57.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2">
+      <c r="C11" s="8">
         <v>0.47</v>
       </c>
-      <c r="F11" s="2">
+      <c r="D11" s="8">
         <v>44.3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="E11" s="8">
         <v>48.2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="F11" s="8">
         <v>52.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2">
+      <c r="C12" s="8">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="D12" s="8">
         <v>43.6</v>
       </c>
-      <c r="G12" s="2">
+      <c r="E12" s="8">
         <v>48.7</v>
       </c>
-      <c r="H12" s="2">
+      <c r="F12" s="8">
         <v>55.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>78</v>
       </c>
       <c r="B13">
         <v>2293</v>
       </c>
-      <c r="E13" s="2">
+      <c r="C13" s="8">
         <v>0.49099999999999999</v>
       </c>
-      <c r="F13" s="2">
+      <c r="D13" s="8">
         <v>44.1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="E13" s="8">
         <v>51.1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="F13" s="8">
         <v>58.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14">
         <v>2270</v>
       </c>
-      <c r="E14" s="2">
+      <c r="C14" s="8">
         <v>0.49199999999999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="D14" s="8">
         <v>44.4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="E14" s="8">
         <v>51.3</v>
       </c>
-      <c r="H14" s="2">
+      <c r="F14" s="8">
         <v>58.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1977</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43.8</v>
+      </c>
+      <c r="E15" s="8">
+        <v>50.9</v>
+      </c>
+      <c r="F15" s="8">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1986</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D16" s="8">
+        <v>43.9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>51.9</v>
+      </c>
+      <c r="F16" s="8">
+        <v>59.2</v>
       </c>
     </row>
   </sheetData>
@@ -1327,62 +1410,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -1411,10 +1494,10 @@
       <c r="C4">
         <v>125</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
       <c r="J4">
         <v>34.9</v>
       </c>
@@ -1426,22 +1509,22 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="L5" t="s">
@@ -1452,22 +1535,22 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>48</v>
       </c>
       <c r="L6" t="s">
@@ -1478,22 +1561,22 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L7" t="s">
@@ -1504,16 +1587,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="L8" t="s">
@@ -1524,16 +1607,16 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>60</v>
       </c>
       <c r="L9" t="s">
@@ -1556,10 +1639,10 @@
       <c r="I10">
         <v>40.9</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>58.7</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -1577,10 +1660,10 @@
       <c r="I11">
         <v>73.3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>82.4</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -1598,10 +1681,10 @@
       <c r="I12">
         <v>75.900000000000006</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>84</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -1619,94 +1702,94 @@
       <c r="I13">
         <v>77.099999999999994</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>83.2</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14">
         <v>81.599999999999994</v>
       </c>
       <c r="I14">
         <v>85.6</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>89.1</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>17</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="F15" s="7">
+      <c r="C15" s="6"/>
+      <c r="F15" s="6">
         <v>0.78200000000000003</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15">
         <v>71.099999999999994</v>
       </c>
       <c r="I15">
         <v>83.5</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>90</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="F16" s="7">
+      <c r="C16" s="6"/>
+      <c r="F16" s="6">
         <v>0.81299999999999994</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
       <c r="H16">
         <v>76.599999999999994</v>
       </c>
       <c r="I16">
         <v>85</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>89.6</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>0.52400000000000002</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
       <c r="H17">
         <v>59.9</v>
       </c>
       <c r="I17">
         <v>75.900000000000006</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>73.900000000000006</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1762,62 +1845,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -1846,10 +1929,10 @@
       <c r="C4">
         <v>251</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.495</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
       <c r="H4">
         <v>11.3</v>
       </c>
@@ -1870,16 +1953,16 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L5" t="s">
@@ -1890,21 +1973,21 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L6" t="s">
@@ -1915,21 +1998,21 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L7" t="s">
@@ -1940,21 +2023,21 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L8" t="s">
@@ -1965,16 +2048,16 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L9" t="s">
@@ -1997,10 +2080,10 @@
       <c r="I10">
         <v>90.4</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>92.8</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -2018,10 +2101,10 @@
       <c r="I11">
         <v>91.4</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>93.6</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
       <c r="L11" t="s">
         <v>71</v>
       </c>
@@ -2042,10 +2125,10 @@
       <c r="I12">
         <v>94.5</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>94.7</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -2063,113 +2146,113 @@
       <c r="I13">
         <v>95</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>95.4</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.95</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14">
         <v>94.6</v>
       </c>
       <c r="I14">
         <v>95.4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>95.8</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15">
         <v>93.9</v>
       </c>
       <c r="I15">
         <v>94.4</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>94.7</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>162</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="F16" s="7">
+      <c r="C16" s="6"/>
+      <c r="F16" s="6">
         <v>0.95</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
       <c r="H16">
         <v>94.5</v>
       </c>
       <c r="I16">
         <v>95.4</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>95.9</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>156</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="F17" s="7">
+      <c r="C17" s="6"/>
+      <c r="F17" s="6">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
       <c r="H17">
         <v>94.6</v>
       </c>
       <c r="I17">
         <v>95.6</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>96.2</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="6"/>
       <c r="H18">
         <v>93</v>
       </c>
       <c r="I18">
         <v>94.5</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>94.9</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/实验室/数据合集/链路预测.xlsx
+++ b/实验室/数据合集/链路预测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4310D45-AB7C-46B2-9934-1CA36D0C0FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D747D18-E76B-4E07-80F9-5556E6EDC757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="1470" windowWidth="20265" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15K-237" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,10 @@
   <si>
     <t>QuatDE</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConEx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -361,7 +365,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000000;[Red]0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000;[Red]0.000000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -433,7 +437,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,13 +448,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -772,16 +776,16 @@
       <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>0.24</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>16</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>26</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>42</v>
       </c>
     </row>
@@ -789,16 +793,16 @@
       <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>0.25</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>16</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>28</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>43</v>
       </c>
     </row>
@@ -806,16 +810,16 @@
       <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.25</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>15</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>26</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>42</v>
       </c>
     </row>
@@ -826,12 +830,12 @@
       <c r="B5" s="2">
         <v>357</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>46.5</v>
       </c>
     </row>
@@ -839,16 +843,16 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>0.32</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>24</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>35</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>49</v>
       </c>
     </row>
@@ -856,16 +860,16 @@
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>23.9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>48.9</v>
       </c>
     </row>
@@ -873,16 +877,16 @@
       <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>0.33600000000000002</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>24.5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>37</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>52.1</v>
       </c>
     </row>
@@ -893,16 +897,16 @@
       <c r="B9" s="2">
         <v>177</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>24.1</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>37.5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>53.3</v>
       </c>
     </row>
@@ -910,16 +914,16 @@
       <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>0.34399999999999997</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>24.6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>28</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>53.5</v>
       </c>
     </row>
@@ -927,16 +931,16 @@
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>0.35</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>26</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>39</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>54</v>
       </c>
     </row>
@@ -947,16 +951,16 @@
       <c r="B12">
         <v>88</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>25.8</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>39.200000000000003</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>55.5</v>
       </c>
     </row>
@@ -967,16 +971,16 @@
       <c r="B13" s="2">
         <v>197</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>0.35499999999999998</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>26.4</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>39</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>53.5</v>
       </c>
     </row>
@@ -984,16 +988,16 @@
       <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>26.6</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>39.4</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>54.4</v>
       </c>
     </row>
@@ -1004,57 +1008,74 @@
       <c r="B15">
         <v>91</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>26.8</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>40</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>55.9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>90</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>26.8</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>40</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>56.3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>88</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>26.9</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>40.4</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>56.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>27.1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F18" s="6">
+        <v>55.5</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA0D77C-1F05-4432-80DD-276D3D0588DC}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1113,12 +1134,12 @@
       <c r="B2">
         <v>3384</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>50.1</v>
       </c>
     </row>
@@ -1129,16 +1150,16 @@
       <c r="B3">
         <v>3340</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>0.47599999999999998</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>42.8</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>49.2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>57.1</v>
       </c>
     </row>
@@ -1149,16 +1170,16 @@
       <c r="B4">
         <v>3533</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>44.3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>49.4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>54.6</v>
       </c>
     </row>
@@ -1166,16 +1187,16 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>0.43</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>39</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>44</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>49</v>
       </c>
     </row>
@@ -1183,16 +1204,16 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>0.44</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>41</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>46</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>51</v>
       </c>
     </row>
@@ -1200,16 +1221,16 @@
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>0.46</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>39</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>43</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>48</v>
       </c>
     </row>
@@ -1217,16 +1238,16 @@
       <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>0.47</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>43</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>48</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>54</v>
       </c>
     </row>
@@ -1234,16 +1255,16 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>0.47</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>43.7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>48.2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>53.9</v>
       </c>
     </row>
@@ -1254,16 +1275,16 @@
       <c r="B10">
         <v>2363</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>0.49099999999999999</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>44.1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>51</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>57.9</v>
       </c>
     </row>
@@ -1271,16 +1292,16 @@
       <c r="A11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>0.47</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>44.3</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>48.2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>52.6</v>
       </c>
     </row>
@@ -1288,16 +1309,16 @@
       <c r="A12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>43.6</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>48.7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>55.4</v>
       </c>
     </row>
@@ -1308,16 +1329,16 @@
       <c r="B13">
         <v>2293</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>0.49099999999999999</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>44.1</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>51.1</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>58.6</v>
       </c>
     </row>
@@ -1328,57 +1349,74 @@
       <c r="B14">
         <v>2270</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>0.49199999999999999</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>44.4</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>51.3</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>58.4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>1977</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>43.8</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>50.9</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>58.6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>1986</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>43.9</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>51.9</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>59.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44.8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>49.3</v>
+      </c>
+      <c r="F17" s="6">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1532,10 @@
       <c r="C4">
         <v>125</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="8"/>
       <c r="J4">
         <v>34.9</v>
       </c>
@@ -1639,10 +1677,10 @@
       <c r="I10">
         <v>40.9</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>58.7</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -1660,10 +1698,10 @@
       <c r="I11">
         <v>73.3</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="8">
         <v>82.4</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -1681,10 +1719,10 @@
       <c r="I12">
         <v>75.900000000000006</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="8">
         <v>84</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -1702,106 +1740,102 @@
       <c r="I13">
         <v>77.099999999999994</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="8">
         <v>83.2</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="8"/>
       <c r="H14">
         <v>81.599999999999994</v>
       </c>
       <c r="I14">
         <v>85.6</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8">
         <v>89.1</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="F15" s="6">
+      <c r="C15" s="8"/>
+      <c r="F15" s="8">
         <v>0.78200000000000003</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="8"/>
       <c r="H15">
         <v>71.099999999999994</v>
       </c>
       <c r="I15">
         <v>83.5</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="8">
         <v>90</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>21</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="F16" s="6">
+      <c r="C16" s="8"/>
+      <c r="F16" s="8">
         <v>0.81299999999999994</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="8"/>
       <c r="H16">
         <v>76.599999999999994</v>
       </c>
       <c r="I16">
         <v>85</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="8">
         <v>89.6</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>0.52400000000000002</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="8"/>
       <c r="H17">
         <v>59.9</v>
       </c>
       <c r="I17">
         <v>75.900000000000006</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="8">
         <v>73.900000000000006</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="J15:K15"/>
@@ -1812,11 +1846,15 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,10 +1967,10 @@
       <c r="C4">
         <v>251</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>0.495</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="8"/>
       <c r="H4">
         <v>11.3</v>
       </c>
@@ -2080,10 +2118,10 @@
       <c r="I10">
         <v>90.4</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>92.8</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -2101,10 +2139,10 @@
       <c r="I11">
         <v>91.4</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="8">
         <v>93.6</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="8"/>
       <c r="L11" t="s">
         <v>71</v>
       </c>
@@ -2125,10 +2163,10 @@
       <c r="I12">
         <v>94.5</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="8">
         <v>94.7</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -2146,132 +2184,116 @@
       <c r="I13">
         <v>95</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="8">
         <v>95.4</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>0.95</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="8"/>
       <c r="H14">
         <v>94.6</v>
       </c>
       <c r="I14">
         <v>95.4</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8">
         <v>95.8</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="8"/>
       <c r="H15">
         <v>93.9</v>
       </c>
       <c r="I15">
         <v>94.4</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="8">
         <v>94.7</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>162</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="F16" s="6">
+      <c r="C16" s="8"/>
+      <c r="F16" s="8">
         <v>0.95</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="8"/>
       <c r="H16">
         <v>94.5</v>
       </c>
       <c r="I16">
         <v>95.4</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="8">
         <v>95.9</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>156</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="F17" s="6">
+      <c r="C17" s="8"/>
+      <c r="F17" s="8">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="8"/>
       <c r="H17">
         <v>94.6</v>
       </c>
       <c r="I17">
         <v>95.6</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="8">
         <v>96.2</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="8"/>
       <c r="H18">
         <v>93</v>
       </c>
       <c r="I18">
         <v>94.5</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="8">
         <v>94.9</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="F15:G15"/>
@@ -2282,6 +2304,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验室/数据合集/链路预测.xlsx
+++ b/实验室/数据合集/链路预测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D747D18-E76B-4E07-80F9-5556E6EDC757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8118CE-0F05-49BC-A6F6-4383E700DAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32220" yWindow="2430" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15K-237" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,14 @@
   </si>
   <si>
     <t>ConEx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,11 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -752,7 +760,7 @@
     <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:7" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,8 +779,11 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -789,7 +800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -806,7 +817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -823,7 +834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -839,7 +850,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -856,7 +867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -873,7 +884,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -890,7 +901,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -910,7 +921,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -927,7 +938,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -944,7 +955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -964,7 +975,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -984,49 +995,48 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D14" s="6">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>26.6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>39.4</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>54.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>91</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D15" s="6">
-        <v>26.8</v>
-      </c>
-      <c r="E15" s="6">
-        <v>40</v>
-      </c>
-      <c r="F15" s="6">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="6">
-        <v>90</v>
       </c>
       <c r="C16" s="6">
         <v>0.36499999999999999</v>
@@ -1038,30 +1048,30 @@
         <v>40</v>
       </c>
       <c r="F16" s="6">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="6">
-        <v>0.36699999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D17" s="6">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E17" s="6">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="F17" s="6">
         <v>56.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1078,8 +1088,29 @@
         <v>55.5</v>
       </c>
     </row>
+    <row r="19" spans="1:7" s="6" customFormat="1">
+      <c r="A19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="6">
+        <v>88</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>56.3</v>
+      </c>
+      <c r="G19"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1092,7 +1123,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1145,198 +1176,195 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3340</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6">
-        <v>0.47599999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="D3" s="6">
-        <v>42.8</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6">
-        <v>49.2</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6">
-        <v>57.1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3533</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6">
-        <v>0.47899999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="D4" s="6">
-        <v>44.3</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6">
-        <v>49.4</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6">
-        <v>54.6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="D5" s="6">
         <v>39</v>
       </c>
       <c r="E5" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D6" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="D7" s="6">
-        <v>39</v>
+        <v>43.7</v>
       </c>
       <c r="E7" s="6">
-        <v>43</v>
+        <v>48.2</v>
       </c>
       <c r="F7" s="6">
-        <v>48</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6">
         <v>0.47</v>
       </c>
       <c r="D8" s="6">
-        <v>43</v>
+        <v>44.3</v>
       </c>
       <c r="E8" s="6">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F8" s="6">
-        <v>54</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6">
-        <v>0.47</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D9" s="6">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="E9" s="6">
-        <v>48.2</v>
+        <v>48.7</v>
       </c>
       <c r="F9" s="6">
-        <v>53.9</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2363</v>
+        <v>3340</v>
       </c>
       <c r="C10" s="6">
-        <v>0.49099999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D10" s="6">
-        <v>44.1</v>
+        <v>42.8</v>
       </c>
       <c r="E10" s="6">
-        <v>51</v>
+        <v>49.2</v>
       </c>
       <c r="F10" s="6">
-        <v>57.9</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3533</v>
       </c>
       <c r="C11" s="6">
-        <v>0.47</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D11" s="6">
         <v>44.3</v>
       </c>
       <c r="E11" s="6">
-        <v>48.2</v>
+        <v>49.4</v>
       </c>
       <c r="F11" s="6">
-        <v>52.6</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6">
-        <v>0.47499999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D12" s="6">
-        <v>43.6</v>
+        <v>44.8</v>
       </c>
       <c r="E12" s="6">
-        <v>48.7</v>
+        <v>49.3</v>
       </c>
       <c r="F12" s="6">
-        <v>55.4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13">
-        <v>2293</v>
+      <c r="A13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1977</v>
       </c>
       <c r="C13" s="6">
-        <v>0.49099999999999999</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D13" s="6">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="E13" s="6">
-        <v>51.1</v>
+        <v>50.9</v>
       </c>
       <c r="F13" s="6">
         <v>58.6</v>
@@ -1344,82 +1372,88 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>2270</v>
+        <v>2363</v>
       </c>
       <c r="C14" s="6">
-        <v>0.49199999999999999</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D14" s="6">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="E14" s="6">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1977</v>
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>2293</v>
       </c>
       <c r="C15" s="6">
-        <v>0.48899999999999999</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D15" s="6">
-        <v>43.8</v>
+        <v>44.1</v>
       </c>
       <c r="E15" s="6">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="F15" s="6">
         <v>58.6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>2270</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="6">
         <v>1986</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>43.9</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>51.9</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>59.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D17" s="6">
-        <v>44.8</v>
-      </c>
-      <c r="E17" s="6">
-        <v>49.3</v>
-      </c>
-      <c r="F17" s="6">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1430,7 +1464,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/实验室/数据合集/链路预测.xlsx
+++ b/实验室/数据合集/链路预测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8118CE-0F05-49BC-A6F6-4383E700DAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA35BFB-2E22-48F4-A20B-17C46278D367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="2430" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32115" yWindow="2310" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15K-237" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,10 @@
   </si>
   <si>
     <t>TransL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcrE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,11 +462,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,11 +748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1033,30 +1037,27 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D16" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F16" s="6">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>91</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D16" s="6">
-        <v>26.8</v>
-      </c>
-      <c r="E16" s="6">
-        <v>40</v>
-      </c>
-      <c r="F16" s="6">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="6">
-        <v>90</v>
       </c>
       <c r="C17" s="6">
         <v>0.36499999999999999</v>
@@ -1068,49 +1069,70 @@
         <v>40</v>
       </c>
       <c r="F17" s="6">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="6">
+        <v>90</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>26.8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6">
         <v>56.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="19" spans="1:7" s="6" customFormat="1">
+      <c r="A19" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="6">
+      <c r="B19"/>
+      <c r="C19" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>27.1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>40.299999999999997</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="6" customFormat="1">
-      <c r="A19" s="6" t="s">
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>88</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>26.9</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>40.4</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <v>56.3</v>
       </c>
-      <c r="G19"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1120,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA0D77C-1F05-4432-80DD-276D3D0588DC}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1227,175 +1249,172 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6">
-        <v>0.47</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D6" s="6">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="E6" s="6">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F6" s="6">
-        <v>54</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6">
         <v>0.47</v>
       </c>
       <c r="D7" s="6">
-        <v>43.7</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6">
-        <v>53.9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C8" s="6">
         <v>0.47</v>
       </c>
       <c r="D8" s="6">
-        <v>44.3</v>
+        <v>43.7</v>
       </c>
       <c r="E8" s="6">
         <v>48.2</v>
       </c>
       <c r="F8" s="6">
-        <v>52.6</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="6">
-        <v>0.47499999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="D9" s="6">
-        <v>43.6</v>
+        <v>44.3</v>
       </c>
       <c r="E9" s="6">
-        <v>48.7</v>
+        <v>48.2</v>
       </c>
       <c r="F9" s="6">
-        <v>55.4</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3340</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6">
-        <v>0.47599999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D10" s="6">
-        <v>42.8</v>
+        <v>43.6</v>
       </c>
       <c r="E10" s="6">
-        <v>49.2</v>
+        <v>48.7</v>
       </c>
       <c r="F10" s="6">
-        <v>57.1</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3533</v>
+        <v>3340</v>
       </c>
       <c r="C11" s="6">
-        <v>0.47899999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D11" s="6">
-        <v>44.3</v>
+        <v>42.8</v>
       </c>
       <c r="E11" s="6">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="F11" s="6">
-        <v>54.6</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3533</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44.3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>49.4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>44.8</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>49.3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>1977</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>43.8</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>50.9</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>58.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>2363</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D14" s="6">
-        <v>44.1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>51</v>
-      </c>
-      <c r="F14" s="6">
-        <v>57.9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>2293</v>
+        <v>2363</v>
       </c>
       <c r="C15" s="6">
         <v>0.49099999999999999</v>
@@ -1404,54 +1423,74 @@
         <v>44.1</v>
       </c>
       <c r="E15" s="6">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="F15" s="6">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16">
+        <v>2293</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44.1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>2270</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <v>0.49199999999999999</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>44.4</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>51.3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>58.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="6">
         <v>1986</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>43.9</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>51.9</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>59.2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1482,62 +1521,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -1566,10 +1605,10 @@
       <c r="C4">
         <v>125</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="J4">
         <v>34.9</v>
       </c>
@@ -1711,10 +1750,10 @@
       <c r="I10">
         <v>40.9</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>58.7</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -1732,10 +1771,10 @@
       <c r="I11">
         <v>73.3</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>82.4</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -1753,10 +1792,10 @@
       <c r="I12">
         <v>75.900000000000006</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>84</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -1774,102 +1813,106 @@
       <c r="I13">
         <v>77.099999999999994</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>83.2</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
       <c r="H14">
         <v>81.599999999999994</v>
       </c>
       <c r="I14">
         <v>85.6</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>89.1</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>17</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="F15" s="8">
+      <c r="C15" s="7"/>
+      <c r="F15" s="7">
         <v>0.78200000000000003</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15">
         <v>71.099999999999994</v>
       </c>
       <c r="I15">
         <v>83.5</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>90</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>21</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="F16" s="8">
+      <c r="C16" s="7"/>
+      <c r="F16" s="7">
         <v>0.81299999999999994</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
       <c r="H16">
         <v>76.599999999999994</v>
       </c>
       <c r="I16">
         <v>85</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>89.6</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>0.52400000000000002</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17">
         <v>59.9</v>
       </c>
       <c r="I17">
         <v>75.900000000000006</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>73.900000000000006</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="J15:K15"/>
@@ -1880,15 +1923,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,62 +1956,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -2001,10 +2040,10 @@
       <c r="C4">
         <v>251</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.495</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="H4">
         <v>11.3</v>
       </c>
@@ -2152,10 +2191,10 @@
       <c r="I10">
         <v>90.4</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>92.8</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -2173,10 +2212,10 @@
       <c r="I11">
         <v>91.4</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>93.6</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
       <c r="L11" t="s">
         <v>71</v>
       </c>
@@ -2197,10 +2236,10 @@
       <c r="I12">
         <v>94.5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>94.7</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -2218,116 +2257,132 @@
       <c r="I13">
         <v>95</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>95.4</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0.95</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
       <c r="H14">
         <v>94.6</v>
       </c>
       <c r="I14">
         <v>95.4</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>95.8</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15">
         <v>93.9</v>
       </c>
       <c r="I15">
         <v>94.4</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>94.7</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>162</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="F16" s="8">
+      <c r="C16" s="7"/>
+      <c r="F16" s="7">
         <v>0.95</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
       <c r="H16">
         <v>94.5</v>
       </c>
       <c r="I16">
         <v>95.4</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>95.9</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>156</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="F17" s="8">
+      <c r="C17" s="7"/>
+      <c r="F17" s="7">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17">
         <v>94.6</v>
       </c>
       <c r="I17">
         <v>95.6</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>96.2</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
       <c r="H18">
         <v>93</v>
       </c>
       <c r="I18">
         <v>94.5</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>94.9</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="F15:G15"/>
@@ -2338,22 +2393,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验室/数据合集/链路预测.xlsx
+++ b/实验室/数据合集/链路预测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室论文\实验室\数据合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA35BFB-2E22-48F4-A20B-17C46278D367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9DEC1F-ADDC-4F32-B312-182DF12B012A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32115" yWindow="2310" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8595" yWindow="2055" windowWidth="20265" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FB15K-237" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="87">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,10 @@
   </si>
   <si>
     <t>AcrE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,11 +466,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1131,6 +1135,26 @@
         <v>56.3</v>
       </c>
     </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>172</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D21" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F21" s="6">
+        <v>54.1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
     <sortCondition ref="C1"/>
@@ -1142,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA0D77C-1F05-4432-80DD-276D3D0588DC}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1391,50 +1415,50 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2860</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44.1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>1977</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>43.8</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>50.9</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>58.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15">
-        <v>2363</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D15" s="6">
-        <v>44.1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>51</v>
-      </c>
-      <c r="F15" s="6">
-        <v>57.9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>2293</v>
+        <v>2363</v>
       </c>
       <c r="C16" s="6">
         <v>0.49099999999999999</v>
@@ -1443,54 +1467,74 @@
         <v>44.1</v>
       </c>
       <c r="E16" s="6">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="F16" s="6">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17">
+        <v>2293</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44.1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>2270</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>0.49199999999999999</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>44.4</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>51.3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>58.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="6">
         <v>1986</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>43.9</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>51.9</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>59.2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1500,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D4E6DF-2FF8-4AE8-BA32-93B4864B5D2D}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1521,62 +1565,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -1605,10 +1649,10 @@
       <c r="C4">
         <v>125</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="J4">
         <v>34.9</v>
       </c>
@@ -1750,10 +1794,10 @@
       <c r="I10">
         <v>40.9</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>58.7</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -1771,10 +1815,10 @@
       <c r="I11">
         <v>73.3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>82.4</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -1792,10 +1836,10 @@
       <c r="I12">
         <v>75.900000000000006</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>84</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -1813,106 +1857,128 @@
       <c r="I13">
         <v>77.099999999999994</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>83.2</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="8"/>
       <c r="H14">
         <v>81.599999999999994</v>
       </c>
       <c r="I14">
         <v>85.6</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>89.1</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>17</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="F15" s="7">
+      <c r="C15" s="8"/>
+      <c r="F15" s="8">
         <v>0.78200000000000003</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="H15">
         <v>71.099999999999994</v>
       </c>
       <c r="I15">
         <v>83.5</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="8">
         <v>90</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="F16" s="7">
+      <c r="C16" s="8"/>
+      <c r="F16" s="8">
         <v>0.81299999999999994</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="8"/>
       <c r="H16">
         <v>76.599999999999994</v>
       </c>
       <c r="I16">
         <v>85</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>89.6</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>0.52400000000000002</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="8"/>
       <c r="H17">
         <v>59.9</v>
       </c>
       <c r="I17">
         <v>75.900000000000006</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="8">
         <v>73.900000000000006</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="8">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="F18" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I18">
+        <v>85.9</v>
+      </c>
+      <c r="J18" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="K18" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:H2"/>
+  <mergeCells count="27">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="J15:K15"/>
@@ -1923,11 +1989,15 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F07F7-6424-4215-9E93-D856A1D6F0FA}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="J19" sqref="J19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1956,62 +2026,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -2040,10 +2110,10 @@
       <c r="C4">
         <v>251</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>0.495</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4">
         <v>11.3</v>
       </c>
@@ -2191,10 +2261,10 @@
       <c r="I10">
         <v>90.4</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>92.8</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -2212,10 +2282,10 @@
       <c r="I11">
         <v>91.4</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>93.6</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="8"/>
       <c r="L11" t="s">
         <v>71</v>
       </c>
@@ -2236,10 +2306,10 @@
       <c r="I12">
         <v>94.5</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>94.7</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -2257,132 +2327,142 @@
       <c r="I13">
         <v>95</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>95.4</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>0.95</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="8"/>
       <c r="H14">
         <v>94.6</v>
       </c>
       <c r="I14">
         <v>95.4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>95.8</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="H15">
         <v>93.9</v>
       </c>
       <c r="I15">
         <v>94.4</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="8">
         <v>94.7</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>162</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="F16" s="7">
+      <c r="C16" s="8"/>
+      <c r="F16" s="8">
         <v>0.95</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="8"/>
       <c r="H16">
         <v>94.5</v>
       </c>
       <c r="I16">
         <v>95.4</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>95.9</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>156</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="F17" s="7">
+      <c r="C17" s="8"/>
+      <c r="F17" s="8">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="8"/>
       <c r="H17">
         <v>94.6</v>
       </c>
       <c r="I17">
         <v>95.6</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="8">
         <v>96.2</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="8"/>
       <c r="H18">
         <v>93</v>
       </c>
       <c r="I18">
         <v>94.5</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="8">
         <v>94.9</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="8">
+        <v>180</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="F19" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19">
+        <v>94.4</v>
+      </c>
+      <c r="I19">
+        <v>95.3</v>
+      </c>
+      <c r="J19" s="8">
+        <v>96.2</v>
+      </c>
+      <c r="K19" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
+  <mergeCells count="29">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="F15:G15"/>
@@ -2393,6 +2473,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
